--- a/docs/mcode/oncocore-CancerRelatedRadiationProcedure.xlsx
+++ b/docs/mcode/oncocore-CancerRelatedRadiationProcedure.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$79</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$74</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2614" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2456" uniqueCount="347">
   <si>
     <t>Path</t>
   </si>
@@ -146,7 +146,7 @@
     <t>oncocore-CancerRelatedRadiationProcedure</t>
   </si>
   <si>
-    <t>An action that is or was performed on a patient. This can be a physical intervention like an operation, or less invasive like counseling or hypnotherapy.</t>
+    <t>A radiological treatment addressing a cancer condition</t>
   </si>
   <si>
     <t xml:space="preserve">pro-1:Reason not performed is only permitted if notPerformed indicator is true {null}
@@ -194,19 +194,98 @@
     <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content may not always be associated with version changes to the resource.</t>
   </si>
   <si>
-    <t>Procedure.meta.id</t>
-  </si>
-  <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references).</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Procedure.meta.extension</t>
+    <t>Procedure.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element as much as possible.</t>
+  </si>
+  <si>
+    <t>Procedure.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource  Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://tools.ietf.org/html/bcp47</t>
+  </si>
+  <si>
+    <t>Procedure.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource, and may be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dom-1
+</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Procedure.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again.</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Procedure.extension</t>
   </si>
   <si>
     <t>extensions
@@ -220,576 +299,435 @@
     <t>Additional Content defined by implementations</t>
   </si>
   <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>statementdatetime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-StatementDateTime-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>The point in time when the statement was created.</t>
+  </si>
+  <si>
+    <t>reasoncode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ReasonCode-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>The justification, as a code.
+Reason is a string or CodeableConcept in DSTU2 but in later versions only a CodeableConcept, so we are not going to support a string.</t>
+  </si>
+  <si>
+    <t>Procedure.extension.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>Procedure.extension.extension</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Procedure.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ReasonCode-extension"/&gt;</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>Procedure.extension.valueCodeableConcept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - may be a resource or one of a constrained set of the data types (see Extensibility in the spec for list).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/mcode/oncocore/vs/CancerDisorderVS</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>reasonreference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ReasonReference-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>The justification, as reference to a condition or observation.</t>
+  </si>
+  <si>
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ReasonReference-extension"/&gt;</t>
+  </si>
+  <si>
+    <t>Procedure.extension.valueReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/oncocore-CancerCondition]]}
+</t>
+  </si>
+  <si>
+    <t>CancerCondition</t>
+  </si>
+  <si>
+    <t>Abstract class for describing a primary or secondary metastatic neoplastic diseases.</t>
+  </si>
+  <si>
+    <t>partof</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-PartOf-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>The larger entity that the asserted item is a portion of. For example, an organization part of a larger organization, or an encounter with a hospitalist might be part of a larger hospitalization encounter.</t>
+  </si>
+  <si>
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-PartOf-extension"/&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Procedure]]}
+</t>
+  </si>
+  <si>
+    <t>A procedure that has been performed.</t>
+  </si>
+  <si>
+    <t>treatmentintent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-TreatmentIntent-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>The intended result from a given treatment.  Examples include curative, palliative, and supportive.</t>
+  </si>
+  <si>
+    <t>radiationdoseperfraction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-RadiationDosePerFraction-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>The total number of treatment sessions (fractions) administered during a course of radiation therapy therapy. A fraction is a portion of the total radiation dose, delivered as a series of treatments that make up the full course of radiotherapy. (source: LOINC)</t>
+  </si>
+  <si>
+    <t>radiationfractionsdelivered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-RadiationFractionsDelivered-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>totalradiationdosedelivered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-TotalRadiationDoseDelivered-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>The total amount of radiation dose delivered for the course of therapy. (source: SNOMED, ASTRO)</t>
+  </si>
+  <si>
+    <t>terminationreason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-TerminationReason-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>A code explaining unplanned or premature termination of a plan of treatment, course of medication, or research study.</t>
+  </si>
+  <si>
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-TerminationReason-extension"/&gt;</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/mcode/shr/core/vs/TreatmentTerminationReasonVS</t>
+  </si>
+  <si>
+    <t>relatedcancercondition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/oncocore-RelatedCancerCondition-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Cancer condition this information relates to.</t>
+  </si>
+  <si>
+    <t>Procedure.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
+  </si>
+  <si>
+    <t>Procedure.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>External Identifiers for this procedure</t>
+  </si>
+  <si>
+    <t>This records identifiers associated with this procedure that are defined by business processes and/or used to refer to it when a direct URL reference to the resource itself is not appropriate (e.g. in CDA documents, or in written / printed documentation).</t>
+  </si>
+  <si>
+    <t>Need to allow connection to a wider workflow.</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Some combination of ORC-2 / ORC-3 / OBR-2 / OBR-3 / IPC-1 / IPC-2 / IPC-3 / IPC-4</t>
+  </si>
+  <si>
+    <t>Procedure.subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Patient]]}
+</t>
+  </si>
+  <si>
+    <t>Who the procedure was performed on</t>
+  </si>
+  <si>
+    <t>The person, animal or group on which the procedure was performed.</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=SBJ].role</t>
+  </si>
+  <si>
+    <t>who.focus</t>
+  </si>
+  <si>
+    <t>PID-3</t>
+  </si>
+  <si>
+    <t>Procedure.status</t>
+  </si>
+  <si>
+    <t>in-progress | aborted | completed | entered-in-error</t>
+  </si>
+  <si>
+    <t>A code specifying the state of the procedure. Generally this will be in-progress or completed state.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/procedure-status</t>
+  </si>
+  <si>
+    <t>Procedure.category</t>
+  </si>
+  <si>
+    <t>Classification of the procedure</t>
+  </si>
+  <si>
+    <t>A code that classifies the procedure for searching, sorting and display purposes (e.g. "Surgical Procedure").</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>A code that classifies a procedure for searching, sorting and display purposes.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/procedure-category</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
+  </si>
+  <si>
+    <t>Procedure.code</t>
+  </si>
+  <si>
+    <t>SNOMED-CT | ICD-10 | CPT-4</t>
+  </si>
+  <si>
+    <t>The specific procedure that is performed. Use text if the exact nature of the procedure cannot be coded (e.g. "Laparoscopic Appendectomy").</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/mcode/shr/core/vs/RadiationProcedureVS</t>
+  </si>
+  <si>
+    <t>.code</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>OBR-44/OBR-45</t>
+  </si>
+  <si>
+    <t>Procedure.notPerformed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>True if procedure was not performed as scheduled</t>
+  </si>
+  <si>
+    <t>Set this to true if the record is saying that the procedure was NOT performed.</t>
+  </si>
+  <si>
+    <t>&lt;valueBoolean xmlns="http://hl7.org/fhir" value="false"/&gt;</t>
+  </si>
+  <si>
+    <t>.actionNegationInd</t>
+  </si>
+  <si>
+    <t>Procedure.reasonNotPerformed</t>
+  </si>
+  <si>
+    <t>Reason procedure was not performed</t>
+  </si>
+  <si>
+    <t>A code indicating why the procedure was not performed.</t>
+  </si>
+  <si>
+    <t>A code that identifies the reason a procedure was not performed.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/procedure-not-performed-reason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pro-1
+</t>
+  </si>
+  <si>
+    <t>.reason.Observation.value</t>
+  </si>
+  <si>
+    <t>Procedure.bodySite</t>
+  </si>
+  <si>
+    <t>Target body sites</t>
+  </si>
+  <si>
+    <t>Detailed and structured anatomical location information. Multiple locations are allowed - e.g. multiple punch biopsies of a lesion.</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/mcode/shr/core/vs/BodyLocationVS</t>
+  </si>
+  <si>
+    <t>.targetSiteCode</t>
+  </si>
+  <si>
+    <t>OBX-20</t>
+  </si>
+  <si>
+    <t>Procedure.bodySite.id</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references).</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Procedure.bodySite.extension</t>
+  </si>
+  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Procedure.meta.versionId</t>
-  </si>
-  <si>
-    <t>Version specific identifier</t>
-  </si>
-  <si>
-    <t>The version specific identifier, as it appears in the version portion of the URL. This values changes when the resource is created, updated, or deleted.</t>
-  </si>
-  <si>
-    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
-  </si>
-  <si>
-    <t>Procedure.meta.lastUpdated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instant {[]} {[]}
+    <t>laterality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Laterality-extension]]} {[]}
 </t>
   </si>
   <si>
-    <t>When the resource version last changed</t>
-  </si>
-  <si>
-    <t>When the resource last changed - e.g. when the version changed.</t>
-  </si>
-  <si>
-    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant.</t>
-  </si>
-  <si>
-    <t>Procedure.meta.profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri {[]} {[]}
+    <t>Body side of the body location, if needed to distinguish from a similar location on the other side of the body.</t>
+  </si>
+  <si>
+    <t>orientation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Orientation-extension]]} {[]}
 </t>
   </si>
   <si>
-    <t>Profiles this resource claims to conform to</t>
-  </si>
-  <si>
-    <t>A list of profiles [[[StructureDefinition]]]s that this resource claims to conform to. The URL is a reference to [[[StructureDefinition.url]]].</t>
-  </si>
-  <si>
-    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
-  </si>
-  <si>
-    <t>Procedure.meta.security</t>
+    <t>Orientation of the body location, if needed to distinguish from a similar location in another orientation.</t>
+  </si>
+  <si>
+    <t>relationtolandmark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-RelationToLandmark-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>An anatomical landmark that helps determine a body location.</t>
+  </si>
+  <si>
+    <t>Procedure.bodySite.coding</t>
   </si>
   <si>
     <t xml:space="preserve">Coding {[]} {[]}
 </t>
   </si>
   <si>
-    <t>Security Labels applied to this resource</t>
-  </si>
-  <si>
-    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
-  </si>
-  <si>
-    <t>The security labels can be updated without changing the stated version of the resource  The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
-  </si>
-  <si>
-    <t>Procedure.meta.tag</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
-  </si>
-  <si>
-    <t>The tags can be updated without changing the stated version of the resource.  The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones"</t>
-  </si>
-  <si>
-    <t>Procedure.implicitRules</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element as much as possible.</t>
-  </si>
-  <si>
-    <t>Procedure.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource  Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://tools.ietf.org/html/bcp47</t>
-  </si>
-  <si>
-    <t>Procedure.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource, and may be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dom-1
-</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Procedure.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again.</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Procedure.extension</t>
-  </si>
-  <si>
-    <t>Procedure:argoprofile.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>statementdatetime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-StatementDateTime-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>The point in time when the statement was created.</t>
-  </si>
-  <si>
-    <t>reasoncode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ReasonCode-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>The justification, as a code.
-Reason is a string or CodeableConcept in DSTU2 but in later versions only a CodeableConcept, so we are not going to support a string.</t>
-  </si>
-  <si>
-    <t>Procedure.extension.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>Procedure.extension.extension</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Procedure.extension.url</t>
-  </si>
-  <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ReasonCode-extension"/&gt;</t>
-  </si>
-  <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
-    <t>Procedure.extension.valueCodeableConcept</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - may be a resource or one of a constrained set of the data types (see Extensibility in the spec for list).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/projectURL/oncocore/vs/CancerDisorderVS</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t>reasonreference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ReasonReference-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>The justification, as reference to a condition or observation.</t>
-  </si>
-  <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ReasonReference-extension"/&gt;</t>
-  </si>
-  <si>
-    <t>Procedure.extension.value[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Condition], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Observation]]}
-</t>
-  </si>
-  <si>
-    <t>partof</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-PartOf-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>The larger entity that the asserted item is a portion of. For example, an organization part of a larger organization, or an encounter with a hospitalist might be part of a larger hospitalization encounter.</t>
-  </si>
-  <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-PartOf-extension"/&gt;</t>
-  </si>
-  <si>
-    <t>Procedure.extension.valueReference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Procedure]]}
-</t>
-  </si>
-  <si>
-    <t>A procedure that has been performed.</t>
-  </si>
-  <si>
-    <t>treatmentintent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-TreatmentIntent-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>The intended result from a given treatment.  Examples include curative, palliative, and supportive.</t>
-  </si>
-  <si>
-    <t>radiationdoseperfraction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-RadiationDosePerFraction-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>The total number of treatment sessions (fractions) administered during a course of radiation therapy therapy. A fraction is a portion of the total radiation dose, delivered as a series of treatments that make up the full course of radiotherapy. (source: LOINC)</t>
-  </si>
-  <si>
-    <t>radiationfractionsdelivered</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-RadiationFractionsDelivered-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>totalradiationdosedelivered</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-TotalRadiationDoseDelivered-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>The total amount of radiation dose delivered for the course of therapy. (source: SNOMED, ASTRO)</t>
-  </si>
-  <si>
-    <t>terminationreason</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-TerminationReason-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>A code explaining unplanned or premature termination of a plan of treatment, course of medication, or research study.</t>
-  </si>
-  <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-TerminationReason-extension"/&gt;</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/projectURL/shr/core/vs/TreatmentTerminationReasonVS</t>
-  </si>
-  <si>
-    <t>Procedure.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
-  </si>
-  <si>
-    <t>Procedure.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>External Identifiers for this procedure</t>
-  </si>
-  <si>
-    <t>This records identifiers associated with this procedure that are defined by business processes and/or used to refer to it when a direct URL reference to the resource itself is not appropriate (e.g. in CDA documents, or in written / printed documentation).</t>
-  </si>
-  <si>
-    <t>Need to allow connection to a wider workflow.</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>Some combination of ORC-2 / ORC-3 / OBR-2 / OBR-3 / IPC-1 / IPC-2 / IPC-3 / IPC-4</t>
-  </si>
-  <si>
-    <t>Procedure.subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Patient]]}
-</t>
-  </si>
-  <si>
-    <t>Who the procedure was performed on</t>
-  </si>
-  <si>
-    <t>The person, animal or group on which the procedure was performed.</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=SBJ].role</t>
-  </si>
-  <si>
-    <t>who.focus</t>
-  </si>
-  <si>
-    <t>PID-3</t>
-  </si>
-  <si>
-    <t>Procedure.status</t>
-  </si>
-  <si>
-    <t>in-progress | aborted | completed | entered-in-error</t>
-  </si>
-  <si>
-    <t>A code specifying the state of the procedure. Generally this will be in-progress or completed state.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/procedure-status</t>
-  </si>
-  <si>
-    <t>Procedure.category</t>
-  </si>
-  <si>
-    <t>Classification of the procedure</t>
-  </si>
-  <si>
-    <t>A code that classifies the procedure for searching, sorting and display purposes (e.g. "Surgical Procedure").</t>
-  </si>
-  <si>
-    <t>A code that classifies a procedure for searching, sorting and display purposes.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/procedure-category</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
-  </si>
-  <si>
-    <t>Procedure.code</t>
-  </si>
-  <si>
-    <t>SNOMED-CT | ICD-10 | CPT-4</t>
-  </si>
-  <si>
-    <t>The specific procedure that is performed. Use text if the exact nature of the procedure cannot be coded (e.g. "Laparoscopic Appendectomy").</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/projectURL/shr/core/vs/RadiationProcedureVS</t>
-  </si>
-  <si>
-    <t>.code</t>
-  </si>
-  <si>
-    <t>class</t>
-  </si>
-  <si>
-    <t>OBR-44/OBR-45</t>
-  </si>
-  <si>
-    <t>Procedure.notPerformed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>True if procedure was not performed as scheduled</t>
-  </si>
-  <si>
-    <t>Set this to true if the record is saying that the procedure was NOT performed.</t>
-  </si>
-  <si>
-    <t>&lt;valueBoolean xmlns="http://hl7.org/fhir" value="false"/&gt;</t>
-  </si>
-  <si>
-    <t>.actionNegationInd</t>
-  </si>
-  <si>
-    <t>Procedure.reasonNotPerformed</t>
-  </si>
-  <si>
-    <t>Reason procedure was not performed</t>
-  </si>
-  <si>
-    <t>A code indicating why the procedure was not performed.</t>
-  </si>
-  <si>
-    <t>A code that identifies the reason a procedure was not performed.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/procedure-not-performed-reason</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pro-1
-</t>
-  </si>
-  <si>
-    <t>.reason.Observation.value</t>
-  </si>
-  <si>
-    <t>Procedure.bodySite</t>
-  </si>
-  <si>
-    <t>Target body sites</t>
-  </si>
-  <si>
-    <t>Detailed and structured anatomical location information. Multiple locations are allowed - e.g. multiple punch biopsies of a lesion.</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/projectURL/shr/core/vs/BodyLocationVS</t>
-  </si>
-  <si>
-    <t>.targetSiteCode</t>
-  </si>
-  <si>
-    <t>OBX-20</t>
-  </si>
-  <si>
-    <t>Procedure.bodySite.id</t>
-  </si>
-  <si>
-    <t>Procedure.bodySite.extension</t>
-  </si>
-  <si>
-    <t>locationqualifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-LocationQualifier-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Additional information, such as laterality or direction, that helps define the body location.</t>
-  </si>
-  <si>
-    <t>landmark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Landmark-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>An anatomical landmark that helps determine a body location.</t>
-  </si>
-  <si>
-    <t>Procedure.bodySite.coding</t>
-  </si>
-  <si>
     <t>Code defined by a terminology system</t>
   </si>
   <si>
@@ -1074,7 +1012,7 @@
     <t>Procedure.request</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ProcedureRequest], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ProcedureRequest], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ProcedureRequest]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ProcedureRequest]]}
 </t>
   </si>
   <si>
@@ -1314,7 +1252,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM79"/>
+  <dimension ref="A1:AM74"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1324,7 +1262,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="40.7265625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="30.03125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="25.95703125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -1346,8 +1284,8 @@
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="95.21875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="72.16796875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="70.2734375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="68.3671875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
@@ -1818,21 +1756,23 @@
         <v>39</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="M5" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="M5" t="s" s="2">
+        <v>62</v>
+      </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
         <v>39</v>
@@ -1854,7 +1794,7 @@
         <v>39</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W5" t="s" s="2">
         <v>39</v>
@@ -1880,11 +1820,15 @@
       <c r="AD5" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE5" s="2"/>
+      <c r="AE5" t="s" s="2">
+        <v>58</v>
+      </c>
       <c r="AF5" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG5" s="2"/>
+      <c r="AG5" t="s" s="2">
+        <v>48</v>
+      </c>
       <c r="AH5" t="s" s="2">
         <v>39</v>
       </c>
@@ -1892,7 +1836,7 @@
         <v>39</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>39</v>
@@ -1903,18 +1847,18 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>39</v>
@@ -1958,16 +1902,16 @@
         <v>39</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="Z6" t="s" s="2">
         <v>39</v>
@@ -1984,11 +1928,15 @@
       <c r="AD6" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE6" s="2"/>
+      <c r="AE6" t="s" s="2">
+        <v>63</v>
+      </c>
       <c r="AF6" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG6" s="2"/>
+      <c r="AG6" t="s" s="2">
+        <v>48</v>
+      </c>
       <c r="AH6" t="s" s="2">
         <v>39</v>
       </c>
@@ -1996,7 +1944,7 @@
         <v>39</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>39</v>
@@ -2007,11 +1955,11 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -2027,19 +1975,19 @@
         <v>39</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2062,7 +2010,7 @@
         <v>39</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W7" t="s" s="2">
         <v>39</v>
@@ -2088,19 +2036,23 @@
       <c r="AD7" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE7" s="2"/>
+      <c r="AE7" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="AF7" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG7" s="2"/>
+      <c r="AG7" t="s" s="2">
+        <v>48</v>
+      </c>
       <c r="AH7" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>39</v>
@@ -2111,18 +2063,18 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>39</v>
@@ -2131,19 +2083,19 @@
         <v>39</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2166,7 +2118,7 @@
         <v>39</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W8" t="s" s="2">
         <v>39</v>
@@ -2192,11 +2144,15 @@
       <c r="AD8" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE8" s="2"/>
+      <c r="AE8" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AF8" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG8" s="2"/>
+      <c r="AG8" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH8" t="s" s="2">
         <v>39</v>
       </c>
@@ -2204,7 +2160,7 @@
         <v>39</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>39</v>
@@ -2215,11 +2171,11 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2235,19 +2191,19 @@
         <v>39</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2270,7 +2226,7 @@
         <v>39</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W9" t="s" s="2">
         <v>39</v>
@@ -2285,22 +2241,24 @@
         <v>39</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>39</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE9" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>86</v>
+      </c>
       <c r="AF9" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG9" s="2"/>
+      <c r="AG9" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH9" t="s" s="2">
         <v>39</v>
       </c>
@@ -2308,7 +2266,7 @@
         <v>39</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>39</v>
@@ -2319,9 +2277,11 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="B10" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>94</v>
+      </c>
       <c r="C10" t="s" s="2">
         <v>39</v>
       </c>
@@ -2330,7 +2290,7 @@
         <v>40</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>39</v>
@@ -2339,20 +2299,16 @@
         <v>39</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="K10" t="s" s="2">
-        <v>84</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="K10" s="2"/>
       <c r="L10" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>86</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>39</v>
@@ -2374,16 +2330,16 @@
         <v>39</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="Z10" t="s" s="2">
         <v>39</v>
@@ -2400,11 +2356,15 @@
       <c r="AD10" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE10" s="2"/>
+      <c r="AE10" t="s" s="2">
+        <v>86</v>
+      </c>
       <c r="AF10" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG10" s="2"/>
+      <c r="AG10" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH10" t="s" s="2">
         <v>39</v>
       </c>
@@ -2423,9 +2383,11 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="B11" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>97</v>
+      </c>
       <c r="C11" t="s" s="2">
         <v>39</v>
       </c>
@@ -2434,7 +2396,7 @@
         <v>40</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>39</v>
@@ -2443,20 +2405,16 @@
         <v>39</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="K11" t="s" s="2">
-        <v>91</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="K11" s="2"/>
       <c r="L11" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>93</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>39</v>
@@ -2478,13 +2436,13 @@
         <v>39</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="Y11" t="s" s="2">
         <v>39</v>
@@ -2504,11 +2462,15 @@
       <c r="AD11" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE11" s="2"/>
+      <c r="AE11" t="s" s="2">
+        <v>86</v>
+      </c>
       <c r="AF11" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG11" s="2"/>
+      <c r="AG11" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH11" t="s" s="2">
         <v>39</v>
       </c>
@@ -2527,7 +2489,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2544,23 +2506,21 @@
         <v>39</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>39</v>
@@ -2582,7 +2542,7 @@
         <v>39</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W12" t="s" s="2">
         <v>39</v>
@@ -2609,7 +2569,7 @@
         <v>39</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>40</v>
@@ -2624,7 +2584,7 @@
         <v>39</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>39</v>
@@ -2635,7 +2595,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2646,7 +2606,7 @@
         <v>40</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>39</v>
@@ -2658,17 +2618,15 @@
         <v>39</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>39</v>
@@ -2690,16 +2648,16 @@
         <v>39</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>105</v>
+        <v>39</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>106</v>
+        <v>39</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>107</v>
+        <v>39</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>39</v>
@@ -2717,13 +2675,13 @@
         <v>39</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>39</v>
@@ -2743,15 +2701,15 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>109</v>
+        <v>39</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>48</v>
@@ -2766,24 +2724,22 @@
         <v>39</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="L14" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>113</v>
-      </c>
+      <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>39</v>
+        <v>112</v>
       </c>
       <c r="R14" t="s" s="2">
         <v>39</v>
@@ -2798,7 +2754,7 @@
         <v>39</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W14" t="s" s="2">
         <v>39</v>
@@ -2825,22 +2781,22 @@
         <v>39</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>48</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>114</v>
+        <v>39</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>39</v>
@@ -2851,18 +2807,18 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>117</v>
+        <v>39</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>39</v>
@@ -2874,17 +2830,15 @@
         <v>39</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>121</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>39</v>
@@ -2906,16 +2860,14 @@
         <v>39</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X15" t="s" s="2">
-        <v>39</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="X15" s="2"/>
       <c r="Y15" t="s" s="2">
-        <v>39</v>
+        <v>118</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>39</v>
@@ -2933,13 +2885,13 @@
         <v>39</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>39</v>
@@ -2948,7 +2900,7 @@
         <v>39</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>39</v>
@@ -2959,20 +2911,20 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>39</v>
@@ -2984,17 +2936,13 @@
         <v>39</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="K16" t="s" s="2">
-        <v>65</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="K16" s="2"/>
       <c r="L16" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>67</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>39</v>
@@ -3031,17 +2979,19 @@
         <v>39</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="AB16" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>39</v>
+      </c>
       <c r="AC16" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>127</v>
+        <v>39</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>40</v>
@@ -3056,7 +3006,7 @@
         <v>39</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>122</v>
+        <v>39</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>39</v>
@@ -3067,11 +3017,9 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>128</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
         <v>39</v>
       </c>
@@ -3092,11 +3040,13 @@
         <v>39</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="K17" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>102</v>
+      </c>
       <c r="L17" t="s" s="2">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3120,7 +3070,7 @@
         <v>39</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W17" t="s" s="2">
         <v>39</v>
@@ -3147,13 +3097,13 @@
         <v>39</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>39</v>
@@ -3162,7 +3112,7 @@
         <v>39</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>39</v>
@@ -3173,11 +3123,9 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
         <v>39</v>
       </c>
@@ -3186,7 +3134,7 @@
         <v>40</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>39</v>
@@ -3198,11 +3146,13 @@
         <v>39</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="K18" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="L18" t="s" s="2">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3226,7 +3176,7 @@
         <v>39</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W18" t="s" s="2">
         <v>39</v>
@@ -3253,7 +3203,7 @@
         <v>39</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>40</v>
@@ -3279,7 +3229,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3287,7 +3237,7 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>48</v>
@@ -3302,13 +3252,13 @@
         <v>39</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>135</v>
+        <v>59</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3317,7 +3267,7 @@
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>39</v>
+        <v>123</v>
       </c>
       <c r="R19" t="s" s="2">
         <v>39</v>
@@ -3359,10 +3309,10 @@
         <v>39</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>48</v>
@@ -3374,7 +3324,7 @@
         <v>39</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>39</v>
@@ -3385,7 +3335,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3393,10 +3343,10 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>39</v>
@@ -3408,13 +3358,13 @@
         <v>39</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3465,13 +3415,13 @@
         <v>39</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>39</v>
@@ -3480,7 +3430,7 @@
         <v>39</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>39</v>
@@ -3491,15 +3441,17 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="B21" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>128</v>
+      </c>
       <c r="C21" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>48</v>
@@ -3514,13 +3466,11 @@
         <v>39</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K21" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="K21" s="2"/>
       <c r="L21" t="s" s="2">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3529,7 +3479,7 @@
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>145</v>
+        <v>39</v>
       </c>
       <c r="R21" t="s" s="2">
         <v>39</v>
@@ -3544,7 +3494,7 @@
         <v>39</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W21" t="s" s="2">
         <v>39</v>
@@ -3571,13 +3521,13 @@
         <v>39</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>146</v>
+        <v>86</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>39</v>
@@ -3586,7 +3536,7 @@
         <v>39</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>122</v>
+        <v>39</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>39</v>
@@ -3597,7 +3547,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>147</v>
+        <v>100</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3605,7 +3555,7 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>48</v>
@@ -3620,13 +3570,13 @@
         <v>39</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>148</v>
+        <v>101</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>149</v>
+        <v>102</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>150</v>
+        <v>103</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3653,11 +3603,13 @@
         <v>39</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="X22" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>39</v>
+      </c>
       <c r="Y22" t="s" s="2">
-        <v>151</v>
+        <v>39</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>39</v>
@@ -3675,7 +3627,7 @@
         <v>39</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>40</v>
@@ -3690,7 +3642,7 @@
         <v>39</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>39</v>
@@ -3701,11 +3653,9 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>153</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
         <v>39</v>
       </c>
@@ -3714,7 +3664,7 @@
         <v>40</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>39</v>
@@ -3726,11 +3676,13 @@
         <v>39</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="K23" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="L23" t="s" s="2">
-        <v>155</v>
+        <v>107</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3754,7 +3706,7 @@
         <v>39</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W23" t="s" s="2">
         <v>39</v>
@@ -3781,7 +3733,7 @@
         <v>39</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>40</v>
@@ -3807,7 +3759,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3815,7 +3767,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>48</v>
@@ -3830,13 +3782,13 @@
         <v>39</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>135</v>
+        <v>59</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3845,7 +3797,7 @@
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>39</v>
+        <v>131</v>
       </c>
       <c r="R24" t="s" s="2">
         <v>39</v>
@@ -3887,10 +3839,10 @@
         <v>39</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>48</v>
@@ -3902,7 +3854,7 @@
         <v>39</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>39</v>
@@ -3913,7 +3865,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3921,10 +3873,10 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>39</v>
@@ -3936,13 +3888,13 @@
         <v>39</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>64</v>
+        <v>132</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>139</v>
+        <v>38</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3993,13 +3945,13 @@
         <v>39</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>39</v>
@@ -4008,7 +3960,7 @@
         <v>39</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>39</v>
@@ -4017,23 +3969,25 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="B26" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="C26" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>39</v>
@@ -4042,13 +3996,11 @@
         <v>39</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K26" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="K26" s="2"/>
       <c r="L26" t="s" s="2">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4057,7 +4009,7 @@
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>156</v>
+        <v>39</v>
       </c>
       <c r="R26" t="s" s="2">
         <v>39</v>
@@ -4072,7 +4024,7 @@
         <v>39</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W26" t="s" s="2">
         <v>39</v>
@@ -4099,13 +4051,13 @@
         <v>39</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>146</v>
+        <v>86</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>39</v>
@@ -4114,7 +4066,7 @@
         <v>39</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>122</v>
+        <v>39</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>39</v>
@@ -4125,15 +4077,17 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="B27" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="C27" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>48</v>
@@ -4148,13 +4102,11 @@
         <v>39</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="K27" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="K27" s="2"/>
       <c r="L27" t="s" s="2">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4178,7 +4130,7 @@
         <v>39</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W27" t="s" s="2">
         <v>39</v>
@@ -4205,13 +4157,13 @@
         <v>39</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>152</v>
+        <v>86</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>39</v>
@@ -4220,7 +4172,7 @@
         <v>39</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>122</v>
+        <v>39</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>39</v>
@@ -4231,10 +4183,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="C28" t="s" s="2">
         <v>39</v>
@@ -4256,11 +4208,11 @@
         <v>39</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="K28" s="2"/>
       <c r="L28" t="s" s="2">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4311,7 +4263,7 @@
         <v>39</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>40</v>
@@ -4337,9 +4289,11 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="B29" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="C29" t="s" s="2">
         <v>39</v>
       </c>
@@ -4360,13 +4314,11 @@
         <v>39</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="K29" t="s" s="2">
-        <v>59</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="K29" s="2"/>
       <c r="L29" t="s" s="2">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4390,7 +4342,7 @@
         <v>39</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W29" t="s" s="2">
         <v>39</v>
@@ -4417,13 +4369,13 @@
         <v>39</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>137</v>
+        <v>86</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>39</v>
@@ -4432,7 +4384,7 @@
         <v>39</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>122</v>
+        <v>39</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>39</v>
@@ -4443,9 +4395,11 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="B30" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="C30" t="s" s="2">
         <v>39</v>
       </c>
@@ -4454,7 +4408,7 @@
         <v>40</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>39</v>
@@ -4466,13 +4420,11 @@
         <v>39</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="K30" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="K30" s="2"/>
       <c r="L30" t="s" s="2">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4496,7 +4448,7 @@
         <v>39</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W30" t="s" s="2">
         <v>39</v>
@@ -4523,7 +4475,7 @@
         <v>39</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>141</v>
+        <v>86</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>40</v>
@@ -4549,7 +4501,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4557,7 +4509,7 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>48</v>
@@ -4572,13 +4524,13 @@
         <v>39</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>143</v>
+        <v>102</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4587,7 +4539,7 @@
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>162</v>
+        <v>39</v>
       </c>
       <c r="R31" t="s" s="2">
         <v>39</v>
@@ -4629,10 +4581,10 @@
         <v>39</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>146</v>
+        <v>104</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>48</v>
@@ -4644,7 +4596,7 @@
         <v>39</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>39</v>
@@ -4655,7 +4607,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>163</v>
+        <v>105</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4663,10 +4615,10 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>39</v>
@@ -4678,13 +4630,13 @@
         <v>39</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>164</v>
+        <v>88</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>165</v>
+        <v>107</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4735,13 +4687,13 @@
         <v>39</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>39</v>
@@ -4750,7 +4702,7 @@
         <v>39</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>122</v>
+        <v>39</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>39</v>
@@ -4761,20 +4713,18 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>39</v>
@@ -4786,11 +4736,13 @@
         <v>39</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="K33" s="2"/>
+        <v>59</v>
+      </c>
+      <c r="K33" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="L33" t="s" s="2">
-        <v>168</v>
+        <v>111</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4799,7 +4751,7 @@
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>39</v>
+        <v>148</v>
       </c>
       <c r="R33" t="s" s="2">
         <v>39</v>
@@ -4814,7 +4766,7 @@
         <v>39</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W33" t="s" s="2">
         <v>39</v>
@@ -4841,13 +4793,13 @@
         <v>39</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>39</v>
@@ -4856,7 +4808,7 @@
         <v>39</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>39</v>
@@ -4867,17 +4819,15 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>169</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>48</v>
@@ -4892,11 +4842,13 @@
         <v>39</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="K34" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>116</v>
+      </c>
       <c r="L34" t="s" s="2">
-        <v>171</v>
+        <v>117</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4920,16 +4872,14 @@
         <v>39</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>39</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="X34" s="2"/>
       <c r="Y34" t="s" s="2">
-        <v>39</v>
+        <v>149</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>39</v>
@@ -4947,13 +4897,13 @@
         <v>39</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>39</v>
@@ -4962,7 +4912,7 @@
         <v>39</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>39</v>
@@ -4971,12 +4921,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="C35" t="s" s="2">
         <v>39</v>
@@ -4989,7 +4939,7 @@
         <v>48</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>39</v>
@@ -4998,11 +4948,11 @@
         <v>39</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="K35" s="2"/>
       <c r="L35" t="s" s="2">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5053,7 +5003,7 @@
         <v>39</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>40</v>
@@ -5079,38 +5029,40 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="B36" t="s" s="2">
-        <v>174</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="K36" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="L36" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="M36" s="2"/>
+        <v>155</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>91</v>
+      </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>39</v>
@@ -5159,7 +5111,7 @@
         <v>39</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>123</v>
+        <v>153</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>40</v>
@@ -5174,7 +5126,7 @@
         <v>39</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>39</v>
@@ -5185,11 +5137,9 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="B37" t="s" s="2">
-        <v>177</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
         <v>39</v>
       </c>
@@ -5207,17 +5157,21 @@
         <v>39</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="K37" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="L37" t="s" s="2">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
+      <c r="N37" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="O37" t="s" s="2">
         <v>39</v>
       </c>
@@ -5265,7 +5219,7 @@
         <v>39</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>123</v>
+        <v>156</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>40</v>
@@ -5280,18 +5234,18 @@
         <v>39</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>39</v>
+        <v>161</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>39</v>
+        <v>162</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>39</v>
+        <v>163</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5299,13 +5253,13 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>48</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>39</v>
@@ -5314,13 +5268,13 @@
         <v>39</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>59</v>
+        <v>166</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>136</v>
+        <v>167</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5344,7 +5298,7 @@
         <v>39</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W38" t="s" s="2">
         <v>39</v>
@@ -5371,10 +5325,10 @@
         <v>39</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>137</v>
+        <v>164</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>48</v>
@@ -5386,18 +5340,18 @@
         <v>39</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>122</v>
+        <v>168</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>39</v>
+        <v>169</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>39</v>
+        <v>170</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5405,16 +5359,16 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>39</v>
@@ -5423,10 +5377,10 @@
         <v>64</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>140</v>
+        <v>173</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5450,16 +5404,14 @@
         <v>39</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>39</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="X39" s="2"/>
       <c r="Y39" t="s" s="2">
-        <v>39</v>
+        <v>174</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>39</v>
@@ -5477,13 +5429,13 @@
         <v>39</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>39</v>
@@ -5503,7 +5455,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>142</v>
+        <v>175</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5511,7 +5463,7 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>48</v>
@@ -5523,16 +5475,16 @@
         <v>39</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>144</v>
+        <v>177</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5541,32 +5493,32 @@
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="Y40" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="R40" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S40" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T40" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U40" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V40" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W40" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>39</v>
-      </c>
       <c r="Z40" t="s" s="2">
         <v>39</v>
       </c>
@@ -5583,10 +5535,10 @@
         <v>39</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>146</v>
+        <v>175</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>48</v>
@@ -5598,7 +5550,7 @@
         <v>39</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>122</v>
+        <v>181</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>39</v>
@@ -5607,9 +5559,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5623,7 +5575,7 @@
         <v>48</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>39</v>
@@ -5632,13 +5584,13 @@
         <v>39</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>148</v>
+        <v>115</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>150</v>
+        <v>184</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5662,14 +5614,14 @@
         <v>39</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>105</v>
+        <v>68</v>
       </c>
       <c r="X41" s="2"/>
       <c r="Y41" t="s" s="2">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>39</v>
@@ -5687,10 +5639,10 @@
         <v>39</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>152</v>
+        <v>182</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>48</v>
@@ -5702,29 +5654,29 @@
         <v>39</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>122</v>
+        <v>186</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>39</v>
+        <v>187</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>39</v>
+        <v>188</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>39</v>
@@ -5736,20 +5688,18 @@
         <v>39</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>64</v>
+        <v>190</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>67</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>39</v>
+        <v>193</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
@@ -5795,13 +5745,13 @@
         <v>39</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>39</v>
@@ -5810,7 +5760,7 @@
         <v>39</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>122</v>
+        <v>194</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>39</v>
@@ -5821,7 +5771,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5832,7 +5782,7 @@
         <v>40</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>39</v>
@@ -5841,21 +5791,19 @@
         <v>39</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>186</v>
+        <v>115</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="M43" s="2"/>
-      <c r="N43" t="s" s="2">
-        <v>189</v>
-      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>39</v>
       </c>
@@ -5879,13 +5827,13 @@
         <v>40</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>39</v>
+        <v>178</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>39</v>
+        <v>198</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>39</v>
+        <v>199</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>39</v>
@@ -5903,7 +5851,7 @@
         <v>39</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>40</v>
@@ -5912,24 +5860,24 @@
         <v>41</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>39</v>
+        <v>200</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>191</v>
+        <v>39</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>192</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -5937,28 +5885,28 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I44" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H44" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>39</v>
-      </c>
       <c r="J44" t="s" s="2">
-        <v>194</v>
+        <v>115</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -5985,13 +5933,11 @@
         <v>40</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>39</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="X44" s="2"/>
       <c r="Y44" t="s" s="2">
-        <v>39</v>
+        <v>206</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>39</v>
@@ -6009,13 +5955,13 @@
         <v>39</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>39</v>
@@ -6024,18 +5970,18 @@
         <v>39</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>198</v>
+        <v>39</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>199</v>
+        <v>208</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6043,28 +5989,28 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>48</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>201</v>
+        <v>102</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6088,14 +6034,16 @@
         <v>39</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="X45" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>39</v>
+      </c>
       <c r="Y45" t="s" s="2">
-        <v>203</v>
+        <v>39</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>39</v>
@@ -6112,15 +6060,11 @@
       <c r="AD45" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE45" t="s" s="2">
-        <v>200</v>
-      </c>
+      <c r="AE45" s="2"/>
       <c r="AF45" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>48</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="AG45" s="2"/>
       <c r="AH45" t="s" s="2">
         <v>39</v>
       </c>
@@ -6128,7 +6072,7 @@
         <v>39</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>39</v>
+        <v>211</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>39</v>
@@ -6139,18 +6083,18 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>39</v>
@@ -6159,18 +6103,20 @@
         <v>39</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>148</v>
+        <v>88</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>205</v>
+        <v>89</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="M46" s="2"/>
+        <v>213</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>91</v>
+      </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>39</v>
@@ -6192,41 +6138,35 @@
         <v>39</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>207</v>
+        <v>39</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>208</v>
+        <v>39</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>39</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="AB46" s="2"/>
       <c r="AC46" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>204</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="AE46" s="2"/>
       <c r="AF46" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG46" t="s" s="2">
-        <v>48</v>
-      </c>
+      <c r="AG46" s="2"/>
       <c r="AH46" t="s" s="2">
         <v>39</v>
       </c>
@@ -6234,7 +6174,7 @@
         <v>39</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>39</v>
@@ -6243,23 +6183,25 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="B47" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>214</v>
+      </c>
       <c r="C47" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>39</v>
@@ -6268,13 +6210,11 @@
         <v>39</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="K47" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="K47" s="2"/>
       <c r="L47" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6298,14 +6238,16 @@
         <v>39</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="X47" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>39</v>
+      </c>
       <c r="Y47" t="s" s="2">
-        <v>213</v>
+        <v>39</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>39</v>
@@ -6323,13 +6265,13 @@
         <v>39</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>39</v>
@@ -6338,20 +6280,22 @@
         <v>39</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>214</v>
+        <v>39</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>215</v>
+        <v>39</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>216</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="B48" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
         <v>39</v>
       </c>
@@ -6360,13 +6304,13 @@
         <v>40</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>39</v>
@@ -6374,16 +6318,14 @@
       <c r="J48" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="K48" t="s" s="2">
+      <c r="K48" s="2"/>
+      <c r="L48" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>221</v>
+        <v>39</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
@@ -6402,7 +6344,7 @@
         <v>39</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W48" t="s" s="2">
         <v>39</v>
@@ -6429,13 +6371,13 @@
         <v>39</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>39</v>
@@ -6444,7 +6386,7 @@
         <v>39</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>222</v>
+        <v>39</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>39</v>
@@ -6455,9 +6397,11 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="B49" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>220</v>
+      </c>
       <c r="C49" t="s" s="2">
         <v>39</v>
       </c>
@@ -6466,7 +6410,7 @@
         <v>40</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>39</v>
@@ -6478,13 +6422,11 @@
         <v>39</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="K49" t="s" s="2">
-        <v>224</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="K49" s="2"/>
       <c r="L49" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6508,16 +6450,16 @@
         <v>39</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>226</v>
+        <v>39</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>227</v>
+        <v>39</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>39</v>
@@ -6535,7 +6477,7 @@
         <v>39</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>40</v>
@@ -6544,13 +6486,13 @@
         <v>41</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>228</v>
+        <v>39</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>229</v>
+        <v>39</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>39</v>
@@ -6561,7 +6503,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6584,16 +6526,20 @@
         <v>49</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>148</v>
+        <v>224</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>228</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>39</v>
       </c>
@@ -6614,14 +6560,16 @@
         <v>39</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="X50" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>39</v>
+      </c>
       <c r="Y50" t="s" s="2">
-        <v>234</v>
+        <v>39</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>39</v>
@@ -6638,34 +6586,30 @@
       <c r="AD50" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE50" t="s" s="2">
+      <c r="AE50" s="2"/>
+      <c r="AF50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG50" s="2"/>
+      <c r="AH50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL50" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>236</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6685,19 +6629,23 @@
         <v>39</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>59</v>
+        <v>232</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>235</v>
+      </c>
       <c r="O51" t="s" s="2">
         <v>39</v>
       </c>
@@ -6756,13 +6704,13 @@
         <v>39</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>61</v>
+        <v>236</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>39</v>
+        <v>237</v>
       </c>
     </row>
     <row r="52" hidden="true">
@@ -6771,14 +6719,14 @@
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>39</v>
@@ -6787,19 +6735,19 @@
         <v>39</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>64</v>
+        <v>239</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>65</v>
+        <v>240</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>66</v>
+        <v>241</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>67</v>
+        <v>242</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -6822,35 +6770,41 @@
         <v>39</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>39</v>
+        <v>178</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>39</v>
+        <v>243</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>39</v>
+        <v>244</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="AB52" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>39</v>
+      </c>
       <c r="AC52" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AE52" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>238</v>
+      </c>
       <c r="AF52" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG52" s="2"/>
+      <c r="AG52" t="s" s="2">
+        <v>48</v>
+      </c>
       <c r="AH52" t="s" s="2">
         <v>39</v>
       </c>
@@ -6858,7 +6812,7 @@
         <v>39</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>61</v>
+        <v>245</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>39</v>
@@ -6869,11 +6823,9 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="B53" t="s" s="2">
-        <v>239</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
         <v>39</v>
       </c>
@@ -6891,14 +6843,16 @@
         <v>39</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="K53" s="2"/>
+        <v>247</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>248</v>
+      </c>
       <c r="L53" t="s" s="2">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -6922,7 +6876,7 @@
         <v>39</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W53" t="s" s="2">
         <v>39</v>
@@ -6949,7 +6903,7 @@
         <v>39</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>40</v>
@@ -6964,7 +6918,7 @@
         <v>39</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>39</v>
+        <v>250</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>39</v>
@@ -6975,11 +6929,9 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>242</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
         <v>39</v>
       </c>
@@ -6988,7 +6940,7 @@
         <v>40</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>39</v>
@@ -7000,11 +6952,13 @@
         <v>39</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="K54" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>102</v>
+      </c>
       <c r="L54" t="s" s="2">
-        <v>244</v>
+        <v>210</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7028,7 +6982,7 @@
         <v>39</v>
       </c>
       <c r="V54" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W54" t="s" s="2">
         <v>39</v>
@@ -7055,13 +7009,13 @@
         <v>39</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>39</v>
@@ -7070,7 +7024,7 @@
         <v>39</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>39</v>
+        <v>211</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>39</v>
@@ -7081,11 +7035,11 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -7101,23 +7055,21 @@
         <v>39</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>246</v>
+        <v>89</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>247</v>
+        <v>213</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>39</v>
       </c>
@@ -7138,7 +7090,7 @@
         <v>39</v>
       </c>
       <c r="V55" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W55" t="s" s="2">
         <v>39</v>
@@ -7164,11 +7116,15 @@
       <c r="AD55" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE55" s="2"/>
+      <c r="AE55" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="AF55" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG55" s="2"/>
+      <c r="AG55" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH55" t="s" s="2">
         <v>39</v>
       </c>
@@ -7176,54 +7132,52 @@
         <v>39</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>250</v>
+        <v>211</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>251</v>
+        <v>39</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>39</v>
+        <v>254</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>135</v>
+        <v>88</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>253</v>
+        <v>154</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>256</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>39</v>
       </c>
@@ -7244,7 +7198,7 @@
         <v>39</v>
       </c>
       <c r="V56" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W56" t="s" s="2">
         <v>39</v>
@@ -7270,11 +7224,15 @@
       <c r="AD56" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE56" s="2"/>
+      <c r="AE56" t="s" s="2">
+        <v>253</v>
+      </c>
       <c r="AF56" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG56" s="2"/>
+      <c r="AG56" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH56" t="s" s="2">
         <v>39</v>
       </c>
@@ -7282,18 +7240,18 @@
         <v>39</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>257</v>
+        <v>85</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>258</v>
+        <v>39</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7316,17 +7274,15 @@
         <v>49</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>263</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>39</v>
@@ -7351,13 +7307,13 @@
         <v>40</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>264</v>
+        <v>39</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>265</v>
+        <v>39</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>39</v>
@@ -7375,7 +7331,7 @@
         <v>39</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>40</v>
@@ -7390,18 +7346,18 @@
         <v>39</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>39</v>
+        <v>261</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>39</v>
+        <v>262</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7412,7 +7368,7 @@
         <v>40</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>39</v>
@@ -7424,13 +7380,13 @@
         <v>49</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>268</v>
+        <v>115</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -7457,13 +7413,13 @@
         <v>40</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>39</v>
+        <v>178</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>39</v>
+        <v>266</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>39</v>
+        <v>267</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>39</v>
@@ -7481,13 +7437,13 @@
         <v>39</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>39</v>
@@ -7496,18 +7452,18 @@
         <v>39</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>39</v>
+        <v>269</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7515,13 +7471,13 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F59" t="s" s="2">
         <v>48</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>39</v>
@@ -7530,13 +7486,13 @@
         <v>39</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>50</v>
+        <v>271</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>59</v>
+        <v>272</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>60</v>
+        <v>273</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -7587,7 +7543,7 @@
         <v>39</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>40</v>
@@ -7602,29 +7558,29 @@
         <v>39</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>61</v>
+        <v>274</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>39</v>
+        <v>275</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>39</v>
+        <v>276</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>39</v>
@@ -7633,20 +7589,18 @@
         <v>39</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>64</v>
+        <v>278</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>65</v>
+        <v>279</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>67</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="M60" s="2"/>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>39</v>
@@ -7695,13 +7649,13 @@
         <v>39</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>39</v>
@@ -7710,52 +7664,52 @@
         <v>39</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>61</v>
+        <v>281</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>39</v>
+        <v>282</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>39</v>
+        <v>283</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>275</v>
+        <v>39</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I61" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="I61" t="s" s="2">
-        <v>39</v>
-      </c>
       <c r="J61" t="s" s="2">
-        <v>64</v>
+        <v>285</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>183</v>
+        <v>286</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="M61" s="2"/>
+      <c r="N61" t="s" s="2">
+        <v>288</v>
+      </c>
       <c r="O61" t="s" s="2">
         <v>39</v>
       </c>
@@ -7803,13 +7757,13 @@
         <v>39</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>39</v>
@@ -7818,10 +7772,10 @@
         <v>39</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>122</v>
+        <v>39</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>39</v>
+        <v>289</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>39</v>
@@ -7829,7 +7783,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -7852,15 +7806,17 @@
         <v>49</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>278</v>
+        <v>115</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="M62" s="2"/>
+        <v>292</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>293</v>
+      </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>39</v>
@@ -7885,13 +7841,13 @@
         <v>40</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>39</v>
+        <v>178</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>39</v>
+        <v>294</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>39</v>
+        <v>295</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>39</v>
@@ -7909,7 +7865,7 @@
         <v>39</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>40</v>
@@ -7924,18 +7880,18 @@
         <v>39</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>282</v>
+        <v>39</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>283</v>
+        <v>39</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -7946,7 +7902,7 @@
         <v>40</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>39</v>
@@ -7955,18 +7911,20 @@
         <v>39</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>148</v>
+        <v>298</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="M63" s="2"/>
+        <v>300</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>301</v>
+      </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>39</v>
@@ -7991,13 +7949,13 @@
         <v>40</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>287</v>
+        <v>39</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>288</v>
+        <v>39</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>39</v>
@@ -8015,13 +7973,13 @@
         <v>39</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>39</v>
@@ -8030,18 +7988,18 @@
         <v>39</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>290</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8049,13 +8007,13 @@
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>39</v>
@@ -8064,15 +8022,17 @@
         <v>39</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>292</v>
+        <v>115</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="M64" s="2"/>
+        <v>305</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>306</v>
+      </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>39</v>
@@ -8097,13 +8057,13 @@
         <v>40</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>39</v>
+        <v>178</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>39</v>
+        <v>307</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>39</v>
+        <v>308</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>39</v>
@@ -8121,13 +8081,13 @@
         <v>39</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>39</v>
@@ -8136,18 +8096,18 @@
         <v>39</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>296</v>
+        <v>39</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>297</v>
+        <v>39</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8158,7 +8118,7 @@
         <v>40</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>39</v>
@@ -8167,16 +8127,16 @@
         <v>39</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>299</v>
+        <v>115</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -8203,13 +8163,13 @@
         <v>40</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>39</v>
+        <v>178</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>39</v>
+        <v>313</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>39</v>
+        <v>314</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>39</v>
@@ -8227,13 +8187,13 @@
         <v>39</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>39</v>
@@ -8242,18 +8202,18 @@
         <v>39</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>303</v>
+        <v>39</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>304</v>
+        <v>39</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8273,21 +8233,19 @@
         <v>39</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="M66" s="2"/>
-      <c r="N66" t="s" s="2">
-        <v>309</v>
-      </c>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>39</v>
       </c>
@@ -8335,7 +8293,7 @@
         <v>39</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>40</v>
@@ -8353,7 +8311,7 @@
         <v>39</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>310</v>
+        <v>39</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>39</v>
@@ -8361,7 +8319,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8372,7 +8330,7 @@
         <v>40</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>39</v>
@@ -8381,20 +8339,18 @@
         <v>39</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>148</v>
+        <v>321</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="M67" s="2"/>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>39</v>
@@ -8419,13 +8375,13 @@
         <v>40</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>315</v>
+        <v>39</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>316</v>
+        <v>39</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>39</v>
@@ -8443,13 +8399,13 @@
         <v>39</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>39</v>
@@ -8458,18 +8414,18 @@
         <v>39</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>39</v>
+        <v>325</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8492,17 +8448,15 @@
         <v>39</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>319</v>
+        <v>247</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>322</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="M68" s="2"/>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>39</v>
@@ -8551,7 +8505,7 @@
         <v>39</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>40</v>
@@ -8566,7 +8520,7 @@
         <v>39</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>323</v>
+        <v>39</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>39</v>
@@ -8577,7 +8531,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -8588,7 +8542,7 @@
         <v>40</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>39</v>
@@ -8600,17 +8554,15 @@
         <v>39</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>148</v>
+        <v>50</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>325</v>
+        <v>102</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>327</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="M69" s="2"/>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>39</v>
@@ -8635,37 +8587,37 @@
         <v>40</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>328</v>
+        <v>39</v>
       </c>
       <c r="Y69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE69" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="Z69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>324</v>
-      </c>
       <c r="AF69" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>39</v>
@@ -8674,7 +8626,7 @@
         <v>39</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>330</v>
+        <v>211</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>39</v>
@@ -8685,11 +8637,11 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -8708,15 +8660,17 @@
         <v>39</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>148</v>
+        <v>88</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>332</v>
+        <v>89</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="M70" s="2"/>
+        <v>213</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>91</v>
+      </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>39</v>
@@ -8741,13 +8695,13 @@
         <v>40</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>334</v>
+        <v>39</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>335</v>
+        <v>39</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>39</v>
@@ -8765,7 +8719,7 @@
         <v>39</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>40</v>
@@ -8780,7 +8734,7 @@
         <v>39</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>336</v>
+        <v>211</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>39</v>
@@ -8791,38 +8745,40 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>39</v>
+        <v>254</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I71" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>338</v>
+        <v>88</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>339</v>
+        <v>154</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="M71" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>91</v>
+      </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>39</v>
@@ -8871,13 +8827,13 @@
         <v>39</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>39</v>
@@ -8886,7 +8842,7 @@
         <v>39</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>39</v>
@@ -8897,7 +8853,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -8908,7 +8864,7 @@
         <v>40</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>39</v>
@@ -8920,13 +8876,13 @@
         <v>39</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>342</v>
+        <v>115</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -8953,13 +8909,13 @@
         <v>40</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>39</v>
+        <v>335</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>39</v>
+        <v>336</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>39</v>
@@ -8977,13 +8933,13 @@
         <v>39</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>39</v>
@@ -8992,18 +8948,18 @@
         <v>39</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>345</v>
+        <v>39</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>346</v>
+        <v>39</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9011,10 +8967,10 @@
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>39</v>
@@ -9026,13 +8982,13 @@
         <v>39</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>268</v>
+        <v>338</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -9083,13 +9039,13 @@
         <v>39</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>39</v>
@@ -9109,7 +9065,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9120,7 +9076,7 @@
         <v>40</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>39</v>
@@ -9132,16 +9088,20 @@
         <v>39</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>50</v>
+        <v>342</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>59</v>
+        <v>343</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="M74" s="2"/>
-      <c r="N74" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>346</v>
+      </c>
       <c r="O74" t="s" s="2">
         <v>39</v>
       </c>
@@ -9189,13 +9149,13 @@
         <v>39</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>39</v>
@@ -9204,555 +9164,17 @@
         <v>39</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="75" hidden="true">
-      <c r="A75" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="B75" s="2"/>
-      <c r="C75" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="D75" s="2"/>
-      <c r="E75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="N75" s="2"/>
-      <c r="O75" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P75" s="2"/>
-      <c r="Q75" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R75" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="76" hidden="true">
-      <c r="A76" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="B76" s="2"/>
-      <c r="C76" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="D76" s="2"/>
-      <c r="E76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="N76" s="2"/>
-      <c r="O76" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P76" s="2"/>
-      <c r="Q76" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R76" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="77" hidden="true">
-      <c r="A77" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="B77" s="2"/>
-      <c r="C77" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D77" s="2"/>
-      <c r="E77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F77" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="M77" s="2"/>
-      <c r="N77" s="2"/>
-      <c r="O77" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P77" s="2"/>
-      <c r="Q77" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R77" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="78" hidden="true">
-      <c r="A78" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="B78" s="2"/>
-      <c r="C78" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D78" s="2"/>
-      <c r="E78" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="F78" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="M78" s="2"/>
-      <c r="N78" s="2"/>
-      <c r="O78" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P78" s="2"/>
-      <c r="Q78" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R78" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="79" hidden="true">
-      <c r="A79" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="B79" s="2"/>
-      <c r="C79" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D79" s="2"/>
-      <c r="E79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F79" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P79" s="2"/>
-      <c r="Q79" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R79" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL79" t="s" s="2">
         <v>39</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL79">
+  <autoFilter ref="A1:AL74">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9762,7 +9184,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI78">
+  <conditionalFormatting sqref="A2:AI73">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
